--- a/target/test-classes/com/nopCommerceV2/testData/LoginData.xlsx
+++ b/target/test-classes/com/nopCommerceV2/testData/LoginData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
